--- a/mainproject.xlsx
+++ b/mainproject.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DATE</t>
   </si>
@@ -42,15 +42,29 @@
   </si>
   <si>
     <t>Title was choosen</t>
+  </si>
+  <si>
+    <t>feasibility study on this project</t>
+  </si>
+  <si>
+    <t>Concepts of how the login page in that using the forgot and OTP sending the email account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,17 +389,17 @@
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -399,7 +414,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mainproject.xlsx
+++ b/mainproject.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DATE</t>
   </si>
@@ -38,16 +38,25 @@
     <t>TECHNICAL</t>
   </si>
   <si>
-    <t>Read concepts of how to create a login page,went through the abstract of similar previous projects</t>
-  </si>
-  <si>
     <t>Title was choosen</t>
   </si>
   <si>
-    <t>feasibility study on this project</t>
-  </si>
-  <si>
-    <t>Concepts of how the login page in that using the forgot and OTP sending the email account</t>
+    <t>Concepts of login page.</t>
+  </si>
+  <si>
+    <t>Feasibility study on this project</t>
+  </si>
+  <si>
+    <t>Read concepts of how to create a login page, went through the abstract of previous projects.</t>
+  </si>
+  <si>
+    <t>If password is forget during login, then OTP is sent to the respective mail id</t>
+  </si>
+  <si>
+    <t>Feasibity study done. Prototype for the project was developed</t>
+  </si>
+  <si>
+    <t>Modules, prototype was done</t>
   </si>
 </sst>
 </file>
@@ -375,18 +384,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="91.42578125" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -408,10 +417,10 @@
         <v>43804</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -419,10 +428,24 @@
         <v>43805</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/mainproject.xlsx
+++ b/mainproject.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Modules, prototype was done</t>
+  </si>
+  <si>
+    <t>Design for the login,register and menu on this project.</t>
+  </si>
+  <si>
+    <t>Design for the project</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +454,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mainproject.xlsx
+++ b/mainproject.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARTHIBAN P\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -63,13 +58,25 @@
   </si>
   <si>
     <t>Design for the project</t>
+  </si>
+  <si>
+    <t>13/10/2019</t>
+  </si>
+  <si>
+    <t>Design the home page.</t>
+  </si>
+  <si>
+    <t>DFD diagram</t>
+  </si>
+  <si>
+    <t>Design the Home page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,21 +389,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="91.42578125" customWidth="1"/>
@@ -404,7 +411,7 @@
     <col min="4" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -418,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>43804</v>
       </c>
@@ -429,7 +436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>43805</v>
       </c>
@@ -443,7 +450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43808</v>
       </c>
@@ -454,7 +461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>43809</v>
       </c>
@@ -463,6 +470,20 @@
       </c>
       <c r="C5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
